--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6418233-C4A3-4D16-A9BD-06E515C24518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C93376-A5C7-4B53-99D0-192CCBAA8311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="740" windowWidth="19180" windowHeight="10060" xr2:uid="{DAC719C9-785C-4184-8E13-DE76D258DC86}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,27 +89,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -126,11 +112,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,213 +455,213 @@
   <dimension ref="B2:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2021</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>160</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>140</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>115</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>80</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>55</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>38</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>30</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>35</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>50</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>75</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>110</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2022</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>165</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>145</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>120</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>83</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>58</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>40</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>33</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>37</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>53</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>78</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>115</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2023</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>170</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>150</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>125</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>85</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>60</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>42</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>35</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>39</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>55</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>80</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>120</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2024</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>175</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>155</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>130</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>88</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>63</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>45</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>37</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>41</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>58</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>83</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>125</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>205</v>
       </c>
     </row>
